--- a/test-case Angular.xlsx
+++ b/test-case Angular.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10005" yWindow="570" windowWidth="12075" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
   <si>
     <t>Имя теста</t>
   </si>
@@ -28,18 +28,386 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Открытия сайта https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>Открыть сайт https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Features"</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Resourses"</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Events"</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Blog"</t>
+  </si>
+  <si>
+    <t>Выподающее меню с лева</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Docs menu"</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Docs menu" ещё раз</t>
+  </si>
+  <si>
+    <t>Сайт отоброжается в окне браузера. Левое меню включает пункты: "GETTING STARTED", "TUTORIAL", "FUNDAMENTALS", "TECHNIQUES", "API".</t>
+  </si>
+  <si>
+    <t>Выпадающее меню пропало, отображение страницы корректно</t>
+  </si>
+  <si>
+    <t>Выпадающее меню появилось слева, отображение страницы и меню корректно</t>
+  </si>
+  <si>
+    <t>Переход на главную страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работоспособность ссылок на странице Docs </t>
+  </si>
+  <si>
+    <t>Нажать на каждую ссылку на странице</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отображается сайт с информацией об выделенном тексте</t>
+  </si>
+  <si>
+    <t>Переход на Angular in Action</t>
+  </si>
+  <si>
+    <t>Переход на Quickstart</t>
+  </si>
+  <si>
+    <t>Переход на Architecture</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку с названием "Blog"</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку с названием "Events"</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку с названием "Resourses"</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку с названием "Features"</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку с названием "Home"</t>
+  </si>
+  <si>
+    <t>Изменение состояния блоков при наведении на них</t>
+  </si>
+  <si>
+    <t>К блок приминилась в стандартная тема</t>
+  </si>
+  <si>
+    <t>Навести курсор на область "Angular in Action"</t>
+  </si>
+  <si>
+    <t>Убрать курсор с области</t>
+  </si>
+  <si>
+    <t>Навести курсор на область "Quickstart"</t>
+  </si>
+  <si>
+    <t>Навести курсор на область "Architecture"</t>
+  </si>
+  <si>
+    <t>Проверка поиска по сайту</t>
+  </si>
+  <si>
+    <t>Ввести "http" в поле поиска</t>
+  </si>
+  <si>
+    <t>Очистить поле ввода</t>
+  </si>
+  <si>
+    <t>Ввести "HTTP" в поле ввода</t>
+  </si>
+  <si>
+    <t>Ввести "http1" в поле ввода</t>
+  </si>
+  <si>
+    <t>Поле кликабельно, моргает признак начала строки</t>
+  </si>
+  <si>
+    <t>Отобразился выпадающий список с информацией "http"</t>
+  </si>
+  <si>
+    <t>Отобразился выпадающий список с информацией,содержащей "http"</t>
+  </si>
+  <si>
+    <t>Отобразилось сообщение "No results found."</t>
+  </si>
+  <si>
+    <t>Поле ввода пустое</t>
+  </si>
+  <si>
+    <t>Откроется страница https://angular.io/guide/quickstart</t>
+  </si>
+  <si>
+    <t>Переход на страницу "GETTING STARTED" в выподающем меню с лева</t>
+  </si>
+  <si>
+    <t>Тестирование ссылок раздела "FUNDAMENTALS" в выподающем меню с лева</t>
+  </si>
+  <si>
+    <t>Открыть сайт https://angular.io/guide/quickstart</t>
+  </si>
+  <si>
+    <t>Тестирование навигации по странице "GETTING STARTED"</t>
+  </si>
+  <si>
+    <t>Кликнуть на область "Quickstart"</t>
+  </si>
+  <si>
+    <t>Кликнуть на область "Architecture"</t>
+  </si>
+  <si>
+    <t>Кликнуть на область "Angular in Action"</t>
+  </si>
+  <si>
+    <t>Кликнуть на поле ввода  поиска</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Introduction"</t>
+  </si>
+  <si>
+    <t>Нажать на ссылку "Getting started" на выпадающем меню</t>
+  </si>
+  <si>
+    <t>Кликнутьна ссылку "TUTORIAL" в выпадающем меню</t>
+  </si>
+  <si>
+    <t>Кликнуть на "The Application Shell"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "The Hero Editor"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Display a Heroes List"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Master/Detail Components"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Services"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Routing"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "HTTP"</t>
+  </si>
+  <si>
+    <t>Аналогично тесту: "Проверка ссылок раздела "TUTORIAL" в выподающем меню с лева"</t>
+  </si>
+  <si>
+    <t>Тестирование ссылок раздела "TUTORIAL" в выподающем меню с лева</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Step 1. Set up the Development Environment"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Step 2. Create a new project"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Step 3: Serve the application"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Step 4: Edit your first Angular component"</t>
+  </si>
+  <si>
+    <t>Клиунуть на "What's next?"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Project file review"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "The src folder"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "The root folder"</t>
+  </si>
+  <si>
+    <t>Кликнуть на "Next Step"</t>
+  </si>
+  <si>
+    <t>Тестирование навигации остальных страниц</t>
+  </si>
+  <si>
+    <t>Аналогично тесту: Тестирование навигации по странице "GETTING STARTED"</t>
+  </si>
+  <si>
+    <t>Переход на версию next (v6.0.0-rc.0)</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/features</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/resources</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/events</t>
+  </si>
+  <si>
+    <t>Открылась страница https://blog.angular.io/</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt0</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt1</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt2</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt3</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt4</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt5</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/tutorial/toh-pt6</t>
+  </si>
+  <si>
+    <t>2. Выбрать версию next</t>
+  </si>
+  <si>
+    <t>Переход на версию 4 сайта</t>
+  </si>
+  <si>
+    <t>2. Выбрать версию 4(LTS)</t>
+  </si>
+  <si>
+    <t>Переход на версию AngularDart</t>
+  </si>
+  <si>
+    <t>Переход на версию 2 сайта</t>
+  </si>
+  <si>
+    <t>2. Выбрать версию 2</t>
+  </si>
+  <si>
+    <t>2. Выбрать версию AngularDart</t>
+  </si>
+  <si>
+    <t>Изменения языка страницы</t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку в области Languages для изменения языка на китайский</t>
+  </si>
+  <si>
+    <t>2. Нажать на ссылку в области Languages для изменения языка на английский</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.cn/ , язык сайта изменился на китайский</t>
+  </si>
+  <si>
+    <t>Открылась страница https://angular.io/, язык сайта изменился на английский</t>
+  </si>
+  <si>
+    <t>Откылась страница https://next.angular.io/</t>
+  </si>
+  <si>
+    <t>Открылась страница https://v4.angular.io/docs</t>
+  </si>
+  <si>
+    <t>Открылась страница https://v2.angular.io/docs/ts/latest/</t>
+  </si>
+  <si>
+    <t>Открылась страница https://webdev.dartlang.org/angular</t>
+  </si>
+  <si>
+    <t>Блок стал объёмнее , тема блока поменялась на голубую, появилась подсказка</t>
+  </si>
+  <si>
+    <t>В новой вкладке браузера отобразиля сайт https://stackblitz.com/angular/gllyrlxmbpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В новой вкладке браузера отобразиля сайт https://angular.io/guide/quickstart  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В новой вкладке браузера отобразился сайтhttps://angular.io/guide/architecture </t>
+  </si>
+  <si>
+    <t>Появился список с 8-мью частями туториала</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "Step 1. Set up the Development Environment"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "Step 2. Create a new project"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "Step 3: Serve the application"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "Step 4: Edit your first Angular component"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "What's next?"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "Project file review"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "The src folder"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "The root folder"</t>
+  </si>
+  <si>
+    <t>Страница прокрутилось до абзаца "Next Step"</t>
+  </si>
+  <si>
+    <t>1. Нажать на текущую версию в левом выподающем меню</t>
+  </si>
+  <si>
+    <t>Проверка на изменение разрешения экрана</t>
+  </si>
+  <si>
+    <t>Изменить разрешения экрана</t>
+  </si>
+  <si>
+    <t>Сайт автоматически адоптировался, коректно отоброжается содержание сайта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -144,67 +512,466 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -503,430 +1270,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="20"/>
+      <c r="D1" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>77</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="20"/>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84"/>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="69"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="20"/>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="69"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="20"/>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>79</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="88"/>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="80"/>
+      <c r="B22" s="12">
+        <v>6</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="67"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="67"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90"/>
+      <c r="B28" s="12">
+        <v>2</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="67"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="4">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="9"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="15">
+        <v>8</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75"/>
+      <c r="B38" s="15">
+        <v>2</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="8"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="17">
+        <v>2</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="17">
+        <v>3</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="17">
+        <v>4</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="17">
+        <v>5</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="76"/>
+      <c r="B44" s="17">
+        <v>6</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="17">
+        <v>7</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="17">
+        <v>8</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="9"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="17">
+        <v>9</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="75"/>
+      <c r="B48" s="20">
+        <v>10</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="22">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="56"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="4">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="4">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="17">
+        <v>6</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="17">
+        <v>7</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="17">
+        <v>8</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="17">
+        <v>9</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="62"/>
+      <c r="B59" s="15">
+        <v>10</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="26">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="27">
+        <v>1</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="86"/>
+      <c r="B63" s="29">
+        <v>3</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="94"/>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="64"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="90"/>
+      <c r="B66" s="15">
+        <v>3</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="65"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
+      <c r="B68" s="4">
+        <v>2</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="64"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="86"/>
+      <c r="B69" s="15">
+        <v>3</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="65"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="92"/>
+      <c r="B71" s="4">
+        <v>2</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="64"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="86"/>
+      <c r="B72" s="15">
+        <v>3</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="65"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="92"/>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="59"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="86"/>
+      <c r="B75" s="15">
+        <v>3</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="60"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="43">
+        <v>1</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="62"/>
+      <c r="B77" s="77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="73"/>
+      <c r="E77" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="D52:D53"/>
+  <mergeCells count="35">
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
